--- a/tab/nonparm_test_standing_stock.xlsx
+++ b/tab/nonparm_test_standing_stock.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20386"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumha\Desktop\Lab Work\Analysis\2022_OCA_midterm\tab\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827F95A2-7731-49E9-B61F-15035A7DB5B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="KW_density" sheetId="1" r:id="rId1"/>
@@ -18,57 +12,13 @@
     <sheet name="KW_biomass" sheetId="3" r:id="rId3"/>
     <sheet name="Dunn_biomass" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
-  <si>
-    <t>chi.squared</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>p.value</t>
-  </si>
-  <si>
-    <t>Comparison</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>P.unadj</t>
-  </si>
-  <si>
-    <t>P.adj</t>
-  </si>
-  <si>
-    <t>East - Liuqiu</t>
-  </si>
-  <si>
-    <t>East - North</t>
-  </si>
-  <si>
-    <t>Liuqiu - North</t>
-  </si>
-  <si>
-    <t>East - Penghu</t>
-  </si>
-  <si>
-    <t>Liuqiu - Penghu</t>
-  </si>
-  <si>
-    <t>North - Penghu</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,23 +62,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -170,7 +112,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -202,27 +144,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,24 +178,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -447,35 +353,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>chi.squared</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>df</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>p.value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
-        <v>8.3549286765158524</v>
+        <v>8.334006238913551</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>3.9218597350113099E-2</v>
+        <v>0.03959034227774005</v>
       </c>
     </row>
   </sheetData>
@@ -484,108 +394,126 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Comparison</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>P.unadj</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>P.adj</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>East - Liuqiu</t>
+        </is>
       </c>
       <c r="B2">
-        <v>-0.78234688965262422</v>
+        <v>-0.8657578466098229</v>
       </c>
       <c r="C2">
-        <v>0.43401073718844541</v>
+        <v>0.3866229701050946</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>East - North</t>
+        </is>
       </c>
       <c r="B3">
-        <v>-1.94026879026615</v>
+        <v>-2.051535492359291</v>
       </c>
       <c r="C3">
-        <v>5.2347032224885078E-2</v>
+        <v>0.04021482690886569</v>
       </c>
       <c r="D3">
-        <v>0.31408219334931048</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
+        <v>0.2412889614531941</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Liuqiu - North</t>
+        </is>
       </c>
       <c r="B4">
-        <v>-1.082402362398293</v>
+        <v>-1.096720958796091</v>
       </c>
       <c r="C4">
-        <v>0.27907377902957847</v>
+        <v>0.2727633915639022</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>East - Penghu</t>
+        </is>
       </c>
       <c r="B5">
-        <v>-2.6129194494022179</v>
+        <v>-2.633826082522945</v>
       </c>
       <c r="C5">
-        <v>8.9772457733713323E-3</v>
+        <v>0.008442872187119166</v>
       </c>
       <c r="D5">
-        <v>5.386347464022799E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
+        <v>0.050657233122715</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Liuqiu - Penghu</t>
+        </is>
       </c>
       <c r="B6">
-        <v>-1.770173021503098</v>
+        <v>-1.685424148437435</v>
       </c>
       <c r="C6">
-        <v>7.6698322114434933E-2</v>
+        <v>0.09190676781726803</v>
       </c>
       <c r="D6">
-        <v>0.46018993268660963</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
+        <v>0.5514406069036082</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>North - Penghu</t>
+        </is>
       </c>
       <c r="B7">
-        <v>-0.87349505070366129</v>
+        <v>-0.7396945763862983</v>
       </c>
       <c r="C7">
-        <v>0.38239330273771999</v>
+        <v>0.4594853397740011</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -597,35 +525,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>chi.squared</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>df</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>p.value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
-        <v>13.06994226639066</v>
+        <v>14.03855966453079</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>4.4877669016359228E-3</v>
+        <v>0.002853133539185384</v>
       </c>
     </row>
   </sheetData>
@@ -634,106 +566,126 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Comparison</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>P.unadj</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>P.adj</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>East - Liuqiu</t>
+        </is>
       </c>
       <c r="B2">
-        <v>-0.88389165285035487</v>
+        <v>-1.163461217170435</v>
       </c>
       <c r="C2">
-        <v>0.37675470360558988</v>
+        <v>0.2446424245530802</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>East - North</t>
+        </is>
       </c>
       <c r="B3">
-        <v>-2.7287764717439309</v>
+        <v>-2.96991148697043</v>
       </c>
       <c r="C3">
-        <v>6.3569777777342483E-3</v>
+        <v>0.002978855654401395</v>
       </c>
       <c r="D3">
-        <v>3.814186666640549E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
+        <v>0.01787313392640837</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Liuqiu - North</t>
+        </is>
       </c>
       <c r="B4">
-        <v>-1.79035814798523</v>
+        <v>-1.698988145950122</v>
       </c>
       <c r="C4">
-        <v>7.3396353902052902E-2</v>
+        <v>0.08932141715456023</v>
       </c>
       <c r="D4">
-        <v>0.44037812341231741</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
+        <v>0.5359285029273614</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>East - Penghu</t>
+        </is>
       </c>
       <c r="B5">
-        <v>-3.1302591318426818</v>
+        <v>-3.338653637152597</v>
       </c>
       <c r="C5">
-        <v>1.746521632796573E-3</v>
+        <v>0.0008418546179803865</v>
       </c>
       <c r="D5">
-        <v>1.047912979677944E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
+        <v>0.00505112770788232</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Liuqiu - Penghu</t>
+        </is>
       </c>
       <c r="B6">
-        <v>-2.1890584114046541</v>
+        <v>-2.051810274649919</v>
       </c>
       <c r="C6">
-        <v>2.8592594791201069E-2</v>
+        <v>0.04018810438071301</v>
       </c>
       <c r="D6">
-        <v>0.1715555687472064</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
+        <v>0.2411286262842781</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>North - Penghu</t>
+        </is>
       </c>
       <c r="B7">
-        <v>-0.45184389767727662</v>
+        <v>-0.3944755672587583</v>
       </c>
       <c r="C7">
-        <v>0.65138144311842683</v>
+        <v>0.6932299623500247</v>
       </c>
       <c r="D7">
         <v>1</v>

--- a/tab/nonparm_test_standing_stock.xlsx
+++ b/tab/nonparm_test_standing_stock.xlsx
@@ -379,13 +379,13 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>8.334006238913551</v>
+        <v>8.174016452660174</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.03959034227774005</v>
+        <v>0.04254893441317131</v>
       </c>
     </row>
   </sheetData>
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>-0.8657578466098229</v>
+        <v>-1.247885552504673</v>
       </c>
       <c r="C2">
-        <v>0.3866229701050946</v>
+        <v>0.2120729722137155</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -446,13 +446,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>-2.051535492359291</v>
+        <v>-2.363517314444073</v>
       </c>
       <c r="C3">
-        <v>0.04021482690886569</v>
+        <v>0.01810238074466332</v>
       </c>
       <c r="D3">
-        <v>0.2412889614531941</v>
+        <v>0.1086142844679799</v>
       </c>
     </row>
     <row r="4">
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>-1.096720958796091</v>
+        <v>-0.8585107111846758</v>
       </c>
       <c r="C4">
-        <v>0.2727633915639022</v>
+        <v>0.3906105185017739</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>-2.633826082522945</v>
+        <v>-2.724558358751384</v>
       </c>
       <c r="C5">
-        <v>0.008442872187119166</v>
+        <v>0.006438755018113118</v>
       </c>
       <c r="D5">
-        <v>0.050657233122715</v>
+        <v>0.0386325301086787</v>
       </c>
     </row>
     <row r="6">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B6">
-        <v>-1.685424148437435</v>
+        <v>-1.160251032641434</v>
       </c>
       <c r="C6">
-        <v>0.09190676781726803</v>
+        <v>0.2459466148567726</v>
       </c>
       <c r="D6">
-        <v>0.5514406069036082</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>-0.7396945763862983</v>
+        <v>-0.3755479625914951</v>
       </c>
       <c r="C7">
-        <v>0.4594853397740011</v>
+        <v>0.7072529831806531</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -551,13 +551,13 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>14.03855966453079</v>
+        <v>14.37447415329768</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.002853133539185384</v>
+        <v>0.002437306582975819</v>
       </c>
     </row>
   </sheetData>
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>-1.163461217170435</v>
+        <v>-1.406009511026878</v>
       </c>
       <c r="C2">
-        <v>0.2446424245530802</v>
+        <v>0.1597213005414301</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.9583278032485808</v>
       </c>
     </row>
     <row r="3">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>-2.96991148697043</v>
+        <v>-3.272006258465396</v>
       </c>
       <c r="C3">
-        <v>0.002978855654401395</v>
+        <v>0.001067872121631587</v>
       </c>
       <c r="D3">
-        <v>0.01787313392640837</v>
+        <v>0.006407232729789519</v>
       </c>
     </row>
     <row r="4">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>-1.698988145950122</v>
+        <v>-1.576294985830045</v>
       </c>
       <c r="C4">
-        <v>0.08932141715456023</v>
+        <v>0.1149578366730712</v>
       </c>
       <c r="D4">
-        <v>0.5359285029273614</v>
+        <v>0.6897470200384273</v>
       </c>
     </row>
     <row r="5">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>-3.338653637152597</v>
+        <v>-3.421241634460348</v>
       </c>
       <c r="C5">
-        <v>0.0008418546179803865</v>
+        <v>0.0006233592164173869</v>
       </c>
       <c r="D5">
-        <v>0.00505112770788232</v>
+        <v>0.003740155298504321</v>
       </c>
     </row>
     <row r="6">
@@ -666,13 +666,13 @@
         </is>
       </c>
       <c r="B6">
-        <v>-2.051810274649919</v>
+        <v>-1.658715436232424</v>
       </c>
       <c r="C6">
-        <v>0.04018810438071301</v>
+        <v>0.09717314739043541</v>
       </c>
       <c r="D6">
-        <v>0.2411286262842781</v>
+        <v>0.5830388843426124</v>
       </c>
     </row>
     <row r="7">
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>-0.3944755672587583</v>
+        <v>-0.02847073245015388</v>
       </c>
       <c r="C7">
-        <v>0.6932299623500247</v>
+        <v>0.9772867106842605</v>
       </c>
       <c r="D7">
         <v>1</v>
